--- a/output/results/results hierarchichal vs bisg subsample.xlsx
+++ b/output/results/results hierarchichal vs bisg subsample.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamariapatron/Desktop/GRI/cascade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA37342-6871-124E-9DE1-16DB0A1B7866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F879397-40B3-CB42-835A-72F58457C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
+    <workbookView xWindow="7100" yWindow="240" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
   </bookViews>
   <sheets>
-    <sheet name="confusion matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="metrics" sheetId="2" r:id="rId2"/>
+    <sheet name="CM county" sheetId="1" r:id="rId1"/>
+    <sheet name="metricscounty" sheetId="2" r:id="rId2"/>
+    <sheet name="CM tract" sheetId="4" r:id="rId3"/>
+    <sheet name="metricstract" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="24">
   <si>
     <t>PREDICTED</t>
   </si>
@@ -106,6 +108,9 @@
   </si>
   <si>
     <t>metrics for subsampe of 99 observations. County level, only surname</t>
+  </si>
+  <si>
+    <t>confusion matrix for subsampe of 99 observations. Tract level, only surname</t>
   </si>
 </sst>
 </file>
@@ -185,22 +190,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -332,6 +333,219 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F435BC-6B70-7334-048E-BDFF30B249F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7175500" y="711200"/>
+          <a:ext cx="7086600" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>auc for hierarchichal: cutting leaf can not be computed because probabilities are not summing one, we can think in an altenative. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Columns in the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> dataframe in R are as follows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>columns starting with vec are the probabilities  that came from hierarchical: multypling leafs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> columns starting with bisg are the probabilities  that  came from bisg  algorithm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>columns starting with pred are the probabilities  that  came from hierarchichal: cutting leafs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>the columns named vec, pred_race and bisg  are the final predictions</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724DC303-AD73-6E49-9B92-DF41A4E9B169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="635000"/>
+          <a:ext cx="5765800" cy="2959100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> the hierarchichal that multiplies the leafs, the biggest probabilities are asian and nh_white, because they are the two first levels of the tree</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>hierarchical: cutting leafs depends a lot on the treshold, I put it at 0.7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694DF4FB-9AAE-8A41-94C6-1C84E759E0CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -752,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381FF8D-2B62-A64E-9916-093C2BDB691A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -764,478 +978,434 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>18</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>51</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="G9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>16</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>14</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="G19">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>19</v>
       </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>8</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>33</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" s="9">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
     </row>
@@ -1513,4 +1683,733 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BFF623-4B54-054C-A468-4C3EA2869F90}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB824F48-25A1-E84C-9235-ED4716493942}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.6774</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.94915254237288105</v>
+      </c>
+      <c r="C15">
+        <v>0.98305084745762705</v>
+      </c>
+      <c r="D15">
+        <v>0.61016949152542399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D16">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D18">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.78873239436619702</v>
+      </c>
+      <c r="C23">
+        <v>0.63736263736263699</v>
+      </c>
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>0.375</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D26">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>